--- a/summaries/variantSummary.xlsx
+++ b/summaries/variantSummary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t xml:space="preserve">POS</t>
   </si>
@@ -83,13 +83,16 @@
     <t xml:space="preserve">A1844V</t>
   </si>
   <si>
+    <t xml:space="preserve">M2374T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K811T</t>
+  </si>
+  <si>
     <t xml:space="preserve">A1283V</t>
   </si>
   <si>
-    <t xml:space="preserve">M2374T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K811T</t>
+    <t xml:space="preserve">L3606F</t>
   </si>
   <si>
     <t xml:space="preserve">A879S</t>
@@ -98,10 +101,16 @@
     <t xml:space="preserve">Q72H</t>
   </si>
   <si>
+    <t xml:space="preserve">S412Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">I652V</t>
   </si>
   <si>
-    <t xml:space="preserve">L3606F</t>
+    <t xml:space="preserve">E942G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P12S</t>
   </si>
   <si>
     <t xml:space="preserve">G170C</t>
@@ -122,30 +131,24 @@
     <t xml:space="preserve">K120N</t>
   </si>
   <si>
-    <t xml:space="preserve">S412Y</t>
-  </si>
-  <si>
     <t xml:space="preserve">T666I</t>
   </si>
   <si>
     <t xml:space="preserve">I880V</t>
   </si>
   <si>
-    <t xml:space="preserve">E942G</t>
-  </si>
-  <si>
     <t xml:space="preserve">T1246I</t>
   </si>
   <si>
     <t xml:space="preserve">T4083M</t>
   </si>
   <si>
-    <t xml:space="preserve">P12S</t>
-  </si>
-  <si>
     <t xml:space="preserve">T797I</t>
   </si>
   <si>
+    <t xml:space="preserve">P1682L</t>
+  </si>
+  <si>
     <t xml:space="preserve">G252D</t>
   </si>
   <si>
@@ -155,6 +158,9 @@
     <t xml:space="preserve">P380S</t>
   </si>
   <si>
+    <t xml:space="preserve">A690V</t>
+  </si>
+  <si>
     <t xml:space="preserve">L1016P</t>
   </si>
   <si>
@@ -167,7 +173,7 @@
     <t xml:space="preserve">T2007I</t>
   </si>
   <si>
-    <t xml:space="preserve">P2302L</t>
+    <t xml:space="preserve">S2462C</t>
   </si>
   <si>
     <t xml:space="preserve">S2661F</t>
@@ -182,6 +188,9 @@
     <t xml:space="preserve">A3474T</t>
   </si>
   <si>
+    <t xml:space="preserve">P4360H</t>
+  </si>
+  <si>
     <t xml:space="preserve">N394S</t>
   </si>
   <si>
@@ -200,7 +209,7 @@
     <t xml:space="preserve">A1547P</t>
   </si>
   <si>
-    <t xml:space="preserve">P1682L</t>
+    <t xml:space="preserve">T1646I</t>
   </si>
   <si>
     <t xml:space="preserve">V1811F</t>
@@ -611,7 +620,7 @@
         <v>31</v>
       </c>
       <c r="C2" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -628,7 +637,7 @@
         <v>31</v>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -645,7 +654,7 @@
         <v>31</v>
       </c>
       <c r="C4" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -662,7 +671,7 @@
         <v>31</v>
       </c>
       <c r="C5" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -679,7 +688,7 @@
         <v>31</v>
       </c>
       <c r="C6" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -696,7 +705,7 @@
         <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -713,7 +722,7 @@
         <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -730,7 +739,7 @@
         <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -747,7 +756,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -815,7 +824,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -832,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -849,7 +858,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -928,13 +937,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4113</v>
+        <v>7386</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -945,16 +954,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>7386</v>
+        <v>23994</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
@@ -962,10 +971,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>20371</v>
+        <v>4113</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>4</v>
@@ -974,55 +983,55 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23994</v>
+        <v>11083</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24197</v>
+        <v>20371</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>28109</v>
+        <v>24197</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
         <v>27</v>
@@ -1030,7 +1039,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>29344</v>
+        <v>28109</v>
       </c>
       <c r="B27" t="n">
         <v>2</v>
@@ -1039,32 +1048,32 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2219</v>
+        <v>29344</v>
       </c>
       <c r="B28" t="n">
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6388</v>
+        <v>1500</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -1076,12 +1085,12 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>11083</v>
+        <v>2219</v>
       </c>
       <c r="B30" t="n">
         <v>2</v>
@@ -1093,15 +1102,15 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>13975</v>
+        <v>3090</v>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
         <v>3</v>
@@ -1110,15 +1119,15 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>15326</v>
+        <v>6388</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
         <v>3</v>
@@ -1127,15 +1136,15 @@
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>17010</v>
+        <v>13501</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
         <v>3</v>
@@ -1144,12 +1153,12 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>18650</v>
+        <v>13975</v>
       </c>
       <c r="B34" t="n">
         <v>2</v>
@@ -1161,12 +1170,12 @@
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>28068</v>
+        <v>15326</v>
       </c>
       <c r="B35" t="n">
         <v>2</v>
@@ -1175,24 +1184,24 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>28609</v>
+        <v>17010</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" t="n">
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
@@ -1200,92 +1209,92 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>29247</v>
+        <v>18650</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" t="n">
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>157</v>
+        <v>28068</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>625</v>
+        <v>28609</v>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1500</v>
+        <v>29247</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2262</v>
+        <v>157</v>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2416</v>
+        <v>625</v>
       </c>
       <c r="B42" t="n">
         <v>2</v>
@@ -1297,15 +1306,15 @@
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2485</v>
+        <v>2262</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" t="n">
         <v>2</v>
@@ -1314,12 +1323,12 @@
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2903</v>
+        <v>2416</v>
       </c>
       <c r="B44" t="n">
         <v>2</v>
@@ -1331,12 +1340,12 @@
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3090</v>
+        <v>2485</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -1348,15 +1357,15 @@
         <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4002</v>
+        <v>2903</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" t="n">
         <v>2</v>
@@ -1370,7 +1379,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>12513</v>
+        <v>4002</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -1387,7 +1396,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>13501</v>
+        <v>12513</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -1421,7 +1430,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>22317</v>
+        <v>18512</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -1430,7 +1439,7 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E50" t="s">
         <v>44</v>
@@ -1438,7 +1447,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>29614</v>
+        <v>22317</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -1447,32 +1456,32 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
         <v>45</v>
-      </c>
-      <c r="E51" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1403</v>
+        <v>29614</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2788</v>
+        <v>1403</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -1484,12 +1493,12 @@
         <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3312</v>
+        <v>2334</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -1501,12 +1510,12 @@
         <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3714</v>
+        <v>2788</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -1518,12 +1527,12 @@
         <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4579</v>
+        <v>3312</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -1535,12 +1544,12 @@
         <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5260</v>
+        <v>3714</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -1552,12 +1561,12 @@
         <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5570</v>
+        <v>4579</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -1569,12 +1578,12 @@
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>6040</v>
+        <v>5260</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -1591,7 +1600,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>6285</v>
+        <v>5570</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -1603,12 +1612,12 @@
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>7170</v>
+        <v>6040</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
@@ -1620,12 +1629,12 @@
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>7834</v>
+        <v>6285</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -1637,12 +1646,12 @@
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>7975</v>
+        <v>7649</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -1654,12 +1663,12 @@
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>8047</v>
+        <v>7834</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -1676,7 +1685,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>8247</v>
+        <v>7975</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
@@ -1688,12 +1697,12 @@
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>9615</v>
+        <v>8047</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
@@ -1705,12 +1714,12 @@
         <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>10665</v>
+        <v>8247</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -1727,7 +1736,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>10685</v>
+        <v>9615</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -1744,7 +1753,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>12112</v>
+        <v>10665</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -1756,12 +1765,12 @@
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>13459</v>
+        <v>10685</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
@@ -1773,12 +1782,12 @@
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>14648</v>
+        <v>12112</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1790,12 +1799,12 @@
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>14817</v>
+        <v>13344</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
@@ -1807,12 +1816,12 @@
         <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>16396</v>
+        <v>13459</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
@@ -1824,12 +1833,12 @@
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>16438</v>
+        <v>14648</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -1841,12 +1850,12 @@
         <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>16669</v>
+        <v>14817</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
@@ -1858,12 +1867,12 @@
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>17443</v>
+        <v>16396</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
@@ -1880,7 +1889,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>18106</v>
+        <v>16438</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
@@ -1897,7 +1906,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>18486</v>
+        <v>16669</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
@@ -1909,12 +1918,12 @@
         <v>7</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>18512</v>
+        <v>17443</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
@@ -1926,12 +1935,12 @@
         <v>7</v>
       </c>
       <c r="E79" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>18898</v>
+        <v>18106</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
@@ -1943,12 +1952,12 @@
         <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>18958</v>
+        <v>18404</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
@@ -1960,12 +1969,12 @@
         <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>18974</v>
+        <v>18486</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
@@ -1977,12 +1986,12 @@
         <v>7</v>
       </c>
       <c r="E82" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>19524</v>
+        <v>18898</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
@@ -1994,12 +2003,12 @@
         <v>7</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>20268</v>
+        <v>18958</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
@@ -2011,12 +2020,12 @@
         <v>7</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>20580</v>
+        <v>18974</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -2028,12 +2037,12 @@
         <v>7</v>
       </c>
       <c r="E85" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>21526</v>
+        <v>19524</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
@@ -2045,12 +2054,12 @@
         <v>7</v>
       </c>
       <c r="E86" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>21625</v>
+        <v>20268</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
@@ -2059,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E87" t="s">
         <v>8</v>
@@ -2067,7 +2076,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>21658</v>
+        <v>20580</v>
       </c>
       <c r="B88" t="n">
         <v>1</v>
@@ -2076,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E88" t="s">
         <v>8</v>
@@ -2084,7 +2093,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>21792</v>
+        <v>21526</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
@@ -2093,15 +2102,15 @@
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>21793</v>
+        <v>21625</v>
       </c>
       <c r="B90" t="n">
         <v>1</v>
@@ -2113,12 +2122,12 @@
         <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>21974</v>
+        <v>21658</v>
       </c>
       <c r="B91" t="n">
         <v>1</v>
@@ -2130,12 +2139,12 @@
         <v>9</v>
       </c>
       <c r="E91" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>22162</v>
+        <v>21792</v>
       </c>
       <c r="B92" t="n">
         <v>1</v>
@@ -2147,12 +2156,12 @@
         <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>23987</v>
+        <v>21793</v>
       </c>
       <c r="B93" t="n">
         <v>1</v>
@@ -2164,12 +2173,12 @@
         <v>9</v>
       </c>
       <c r="E93" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>25214</v>
+        <v>21974</v>
       </c>
       <c r="B94" t="n">
         <v>1</v>
@@ -2181,12 +2190,12 @@
         <v>9</v>
       </c>
       <c r="E94" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>25218</v>
+        <v>22162</v>
       </c>
       <c r="B95" t="n">
         <v>1</v>
@@ -2198,12 +2207,12 @@
         <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>25897</v>
+        <v>23987</v>
       </c>
       <c r="B96" t="n">
         <v>1</v>
@@ -2212,15 +2221,15 @@
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E96" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>26233</v>
+        <v>25214</v>
       </c>
       <c r="B97" t="n">
         <v>1</v>
@@ -2229,15 +2238,15 @@
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E97" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>26333</v>
+        <v>25218</v>
       </c>
       <c r="B98" t="n">
         <v>1</v>
@@ -2246,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E98" t="s">
         <v>73</v>
@@ -2254,7 +2263,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>26461</v>
+        <v>25897</v>
       </c>
       <c r="B99" t="n">
         <v>1</v>
@@ -2263,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="E99" t="s">
         <v>74</v>
@@ -2271,7 +2280,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>26467</v>
+        <v>26233</v>
       </c>
       <c r="B100" t="n">
         <v>1</v>
@@ -2280,15 +2289,15 @@
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="E100" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>26690</v>
+        <v>26333</v>
       </c>
       <c r="B101" t="n">
         <v>1</v>
@@ -2297,15 +2306,15 @@
         <v>1</v>
       </c>
       <c r="D101" t="s">
+        <v>75</v>
+      </c>
+      <c r="E101" t="s">
         <v>76</v>
-      </c>
-      <c r="E101" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>28854</v>
+        <v>26461</v>
       </c>
       <c r="B102" t="n">
         <v>1</v>
@@ -2314,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="E102" t="s">
         <v>77</v>
@@ -2322,7 +2331,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>28866</v>
+        <v>26467</v>
       </c>
       <c r="B103" t="n">
         <v>1</v>
@@ -2331,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="E103" t="s">
         <v>78</v>
@@ -2339,7 +2348,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>28881</v>
+        <v>26690</v>
       </c>
       <c r="B104" t="n">
         <v>1</v>
@@ -2348,15 +2357,15 @@
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="E104" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>28882</v>
+        <v>28854</v>
       </c>
       <c r="B105" t="n">
         <v>1</v>
@@ -2368,12 +2377,12 @@
         <v>17</v>
       </c>
       <c r="E105" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>28883</v>
+        <v>28866</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -2385,12 +2394,12 @@
         <v>17</v>
       </c>
       <c r="E106" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>29665</v>
+        <v>28881</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -2399,26 +2408,77 @@
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E107" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
+        <v>28882</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>28883</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>29665</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>46</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
         <v>29836</v>
       </c>
-      <c r="B108" t="n">
-        <v>1</v>
-      </c>
-      <c r="C108" t="n">
-        <v>1</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="s">
         <v>5</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E111" t="s">
         <v>6</v>
       </c>
     </row>

--- a/summaries/variantSummary.xlsx
+++ b/summaries/variantSummary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t xml:space="preserve">POS</t>
   </si>
@@ -71,12 +71,12 @@
     <t xml:space="preserve">S183Y</t>
   </si>
   <si>
+    <t xml:space="preserve">M1596I</t>
+  </si>
+  <si>
     <t xml:space="preserve">S3884L</t>
   </si>
   <si>
-    <t xml:space="preserve">M1596I</t>
-  </si>
-  <si>
     <t xml:space="preserve">G142S</t>
   </si>
   <si>
@@ -104,63 +104,63 @@
     <t xml:space="preserve">S412Y</t>
   </si>
   <si>
+    <t xml:space="preserve">E942G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P12S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M620T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T325I</t>
+  </si>
+  <si>
     <t xml:space="preserve">I652V</t>
   </si>
   <si>
-    <t xml:space="preserve">E942G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P12S</t>
+    <t xml:space="preserve">T1246I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4083M</t>
   </si>
   <si>
     <t xml:space="preserve">G170C</t>
   </si>
   <si>
-    <t xml:space="preserve">M620T</t>
+    <t xml:space="preserve">T797I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1682L</t>
   </si>
   <si>
     <t xml:space="preserve">E1728V</t>
   </si>
   <si>
+    <t xml:space="preserve">G252D</t>
+  </si>
+  <si>
     <t xml:space="preserve">E59*</t>
   </si>
   <si>
-    <t xml:space="preserve">T325I</t>
+    <t xml:space="preserve">orf10</t>
   </si>
   <si>
     <t xml:space="preserve">K120N</t>
   </si>
   <si>
+    <t xml:space="preserve">P380S</t>
+  </si>
+  <si>
     <t xml:space="preserve">T666I</t>
   </si>
   <si>
+    <t xml:space="preserve">A690V</t>
+  </si>
+  <si>
     <t xml:space="preserve">I880V</t>
   </si>
   <si>
-    <t xml:space="preserve">T1246I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4083M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T797I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1682L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G252D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orf10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P380S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A690V</t>
-  </si>
-  <si>
     <t xml:space="preserve">L1016P</t>
   </si>
   <si>
@@ -173,22 +173,10 @@
     <t xml:space="preserve">T2007I</t>
   </si>
   <si>
-    <t xml:space="preserve">S2462C</t>
-  </si>
-  <si>
     <t xml:space="preserve">S2661F</t>
   </si>
   <si>
     <t xml:space="preserve">T3117I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V3467A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3474T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P4360H</t>
   </si>
   <si>
     <t xml:space="preserve">N394S</t>
@@ -617,10 +605,10 @@
         <v>241</v>
       </c>
       <c r="B2" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -634,10 +622,10 @@
         <v>8782</v>
       </c>
       <c r="B3" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -651,10 +639,10 @@
         <v>18060</v>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -668,10 +656,10 @@
         <v>23403</v>
       </c>
       <c r="B5" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -685,10 +673,10 @@
         <v>28144</v>
       </c>
       <c r="B6" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -702,10 +690,10 @@
         <v>3037</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -719,10 +707,10 @@
         <v>14408</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -736,10 +724,10 @@
         <v>25563</v>
       </c>
       <c r="B9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -753,10 +741,10 @@
         <v>1059</v>
       </c>
       <c r="B10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -801,10 +789,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11916</v>
+        <v>18255</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
         <v>10</v>
@@ -818,13 +806,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>18255</v>
+        <v>11916</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -1090,10 +1078,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2219</v>
+        <v>3090</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
         <v>3</v>
@@ -1107,7 +1095,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3090</v>
+        <v>6388</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -1119,12 +1107,12 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6388</v>
+        <v>13501</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -1136,15 +1124,15 @@
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>13501</v>
+        <v>15326</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" t="n">
         <v>3</v>
@@ -1158,101 +1146,101 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>13975</v>
+        <v>28609</v>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>15326</v>
+        <v>29247</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>17010</v>
+        <v>157</v>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>18650</v>
+        <v>2219</v>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>28068</v>
+        <v>2416</v>
       </c>
       <c r="B38" t="n">
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>28609</v>
+        <v>2485</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
@@ -1260,24 +1248,24 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>29247</v>
+        <v>4002</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>157</v>
+        <v>12513</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
@@ -1286,18 +1274,18 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>625</v>
+        <v>13975</v>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
         <v>2</v>
@@ -1306,15 +1294,15 @@
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2262</v>
+        <v>15857</v>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
         <v>2</v>
@@ -1323,15 +1311,15 @@
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2416</v>
+        <v>17010</v>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
         <v>2</v>
@@ -1345,7 +1333,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2485</v>
+        <v>18512</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -1357,15 +1345,15 @@
         <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2903</v>
+        <v>18650</v>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
         <v>2</v>
@@ -1379,7 +1367,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4002</v>
+        <v>22317</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -1388,7 +1376,7 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E47" t="s">
         <v>41</v>
@@ -1396,7 +1384,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>12513</v>
+        <v>28068</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -1405,7 +1393,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
         <v>42</v>
@@ -1413,7 +1401,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>15857</v>
+        <v>29614</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
@@ -1422,21 +1410,21 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>18512</v>
+        <v>625</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
@@ -1447,16 +1435,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>22317</v>
+        <v>1403</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E51" t="s">
         <v>45</v>
@@ -1464,24 +1452,24 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>29614</v>
+        <v>2262</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" t="s">
         <v>46</v>
-      </c>
-      <c r="E52" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1403</v>
+        <v>2334</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -1498,7 +1486,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2334</v>
+        <v>2788</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -1510,12 +1498,12 @@
         <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2788</v>
+        <v>2903</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -1527,7 +1515,7 @@
         <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56">
@@ -1583,7 +1571,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5260</v>
+        <v>5570</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -1595,12 +1583,12 @@
         <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5570</v>
+        <v>6040</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -1612,12 +1600,12 @@
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>6040</v>
+        <v>6285</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
@@ -1629,12 +1617,12 @@
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>6285</v>
+        <v>7834</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -1646,12 +1634,12 @@
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>7649</v>
+        <v>7975</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -1663,12 +1651,12 @@
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>7834</v>
+        <v>8047</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -1685,7 +1673,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>7975</v>
+        <v>8247</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
@@ -1697,12 +1685,12 @@
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>8047</v>
+        <v>9615</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
@@ -1714,12 +1702,12 @@
         <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>8247</v>
+        <v>12112</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -1731,12 +1719,12 @@
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>9615</v>
+        <v>13459</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -1748,12 +1736,12 @@
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>10665</v>
+        <v>14648</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -1765,12 +1753,12 @@
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>10685</v>
+        <v>14817</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
@@ -1782,12 +1770,12 @@
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>12112</v>
+        <v>16396</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1799,12 +1787,12 @@
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>13344</v>
+        <v>16438</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
@@ -1816,12 +1804,12 @@
         <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>13459</v>
+        <v>16669</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
@@ -1833,12 +1821,12 @@
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>14648</v>
+        <v>17443</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -1855,7 +1843,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>14817</v>
+        <v>18106</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
@@ -1867,12 +1855,12 @@
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>16396</v>
+        <v>18404</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
@@ -1884,12 +1872,12 @@
         <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>16438</v>
+        <v>18486</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
@@ -1901,12 +1889,12 @@
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>16669</v>
+        <v>18898</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
@@ -1923,7 +1911,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>17443</v>
+        <v>18958</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
@@ -1940,7 +1928,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>18106</v>
+        <v>18974</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
@@ -1957,7 +1945,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>18404</v>
+        <v>19524</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
@@ -1969,12 +1957,12 @@
         <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>18486</v>
+        <v>20268</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
@@ -1991,7 +1979,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>18898</v>
+        <v>20580</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
@@ -2003,12 +1991,12 @@
         <v>7</v>
       </c>
       <c r="E83" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>18958</v>
+        <v>21526</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
@@ -2020,12 +2008,12 @@
         <v>7</v>
       </c>
       <c r="E84" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>18974</v>
+        <v>21625</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -2034,15 +2022,15 @@
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>19524</v>
+        <v>21658</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
@@ -2051,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E86" t="s">
         <v>8</v>
@@ -2059,7 +2047,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>20268</v>
+        <v>21792</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
@@ -2068,15 +2056,15 @@
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>20580</v>
+        <v>21793</v>
       </c>
       <c r="B88" t="n">
         <v>1</v>
@@ -2085,15 +2073,15 @@
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>21526</v>
+        <v>21974</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
@@ -2102,15 +2090,15 @@
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>21625</v>
+        <v>22162</v>
       </c>
       <c r="B90" t="n">
         <v>1</v>
@@ -2127,7 +2115,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>21658</v>
+        <v>23987</v>
       </c>
       <c r="B91" t="n">
         <v>1</v>
@@ -2139,12 +2127,12 @@
         <v>9</v>
       </c>
       <c r="E91" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>21792</v>
+        <v>25214</v>
       </c>
       <c r="B92" t="n">
         <v>1</v>
@@ -2156,12 +2144,12 @@
         <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>21793</v>
+        <v>25218</v>
       </c>
       <c r="B93" t="n">
         <v>1</v>
@@ -2173,12 +2161,12 @@
         <v>9</v>
       </c>
       <c r="E93" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>21974</v>
+        <v>25897</v>
       </c>
       <c r="B94" t="n">
         <v>1</v>
@@ -2187,15 +2175,15 @@
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E94" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>22162</v>
+        <v>26233</v>
       </c>
       <c r="B95" t="n">
         <v>1</v>
@@ -2204,15 +2192,15 @@
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E95" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>23987</v>
+        <v>26333</v>
       </c>
       <c r="B96" t="n">
         <v>1</v>
@@ -2221,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="E96" t="s">
         <v>72</v>
@@ -2229,7 +2217,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>25214</v>
+        <v>26461</v>
       </c>
       <c r="B97" t="n">
         <v>1</v>
@@ -2238,15 +2226,15 @@
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="E97" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>25218</v>
+        <v>26467</v>
       </c>
       <c r="B98" t="n">
         <v>1</v>
@@ -2255,15 +2243,15 @@
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="E98" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>25897</v>
+        <v>26690</v>
       </c>
       <c r="B99" t="n">
         <v>1</v>
@@ -2272,15 +2260,15 @@
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="E99" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>26233</v>
+        <v>28854</v>
       </c>
       <c r="B100" t="n">
         <v>1</v>
@@ -2289,15 +2277,15 @@
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E100" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>26333</v>
+        <v>28866</v>
       </c>
       <c r="B101" t="n">
         <v>1</v>
@@ -2306,15 +2294,15 @@
         <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="E101" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>26461</v>
+        <v>28881</v>
       </c>
       <c r="B102" t="n">
         <v>1</v>
@@ -2323,15 +2311,15 @@
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="E102" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>26467</v>
+        <v>28882</v>
       </c>
       <c r="B103" t="n">
         <v>1</v>
@@ -2340,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="E103" t="s">
         <v>78</v>
@@ -2348,7 +2336,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>26690</v>
+        <v>28883</v>
       </c>
       <c r="B104" t="n">
         <v>1</v>
@@ -2357,15 +2345,15 @@
         <v>1</v>
       </c>
       <c r="D104" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" t="s">
         <v>79</v>
-      </c>
-      <c r="E104" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>28854</v>
+        <v>29836</v>
       </c>
       <c r="B105" t="n">
         <v>1</v>
@@ -2374,111 +2362,9 @@
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E105" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>28866</v>
-      </c>
-      <c r="B106" t="n">
-        <v>1</v>
-      </c>
-      <c r="C106" t="n">
-        <v>1</v>
-      </c>
-      <c r="D106" t="s">
-        <v>17</v>
-      </c>
-      <c r="E106" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>28881</v>
-      </c>
-      <c r="B107" t="n">
-        <v>1</v>
-      </c>
-      <c r="C107" t="n">
-        <v>1</v>
-      </c>
-      <c r="D107" t="s">
-        <v>17</v>
-      </c>
-      <c r="E107" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>28882</v>
-      </c>
-      <c r="B108" t="n">
-        <v>1</v>
-      </c>
-      <c r="C108" t="n">
-        <v>1</v>
-      </c>
-      <c r="D108" t="s">
-        <v>17</v>
-      </c>
-      <c r="E108" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>28883</v>
-      </c>
-      <c r="B109" t="n">
-        <v>1</v>
-      </c>
-      <c r="C109" t="n">
-        <v>1</v>
-      </c>
-      <c r="D109" t="s">
-        <v>17</v>
-      </c>
-      <c r="E109" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>29665</v>
-      </c>
-      <c r="B110" t="n">
-        <v>1</v>
-      </c>
-      <c r="C110" t="n">
-        <v>1</v>
-      </c>
-      <c r="D110" t="s">
-        <v>46</v>
-      </c>
-      <c r="E110" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>29836</v>
-      </c>
-      <c r="B111" t="n">
-        <v>1</v>
-      </c>
-      <c r="C111" t="n">
-        <v>1</v>
-      </c>
-      <c r="D111" t="s">
-        <v>5</v>
-      </c>
-      <c r="E111" t="s">
         <v>6</v>
       </c>
     </row>

--- a/summaries/variantSummary.xlsx
+++ b/summaries/variantSummary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t xml:space="preserve">POS</t>
   </si>
@@ -41,6 +41,9 @@
     <t xml:space="preserve">silent</t>
   </si>
   <si>
+    <t xml:space="preserve">P314L</t>
+  </si>
+  <si>
     <t xml:space="preserve">S</t>
   </si>
   <si>
@@ -53,9 +56,6 @@
     <t xml:space="preserve">S84L</t>
   </si>
   <si>
-    <t xml:space="preserve">P314L</t>
-  </si>
-  <si>
     <t xml:space="preserve">orf3a</t>
   </si>
   <si>
@@ -158,15 +158,9 @@
     <t xml:space="preserve">A690V</t>
   </si>
   <si>
-    <t xml:space="preserve">I880V</t>
-  </si>
-  <si>
     <t xml:space="preserve">L1016P</t>
   </si>
   <si>
-    <t xml:space="preserve">S1150L</t>
-  </si>
-  <si>
     <t xml:space="preserve">M1769V</t>
   </si>
   <si>
@@ -179,30 +173,15 @@
     <t xml:space="preserve">T3117I</t>
   </si>
   <si>
-    <t xml:space="preserve">N394S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G977S</t>
-  </si>
-  <si>
     <t xml:space="preserve">M991V</t>
   </si>
   <si>
-    <t xml:space="preserve">F1068I</t>
-  </si>
-  <si>
     <t xml:space="preserve">A1326T</t>
   </si>
   <si>
-    <t xml:space="preserve">A1547P</t>
-  </si>
-  <si>
     <t xml:space="preserve">T1646I</t>
   </si>
   <si>
-    <t xml:space="preserve">V1811F</t>
-  </si>
-  <si>
     <t xml:space="preserve">A1831S</t>
   </si>
   <si>
@@ -224,9 +203,6 @@
     <t xml:space="preserve">G1219V</t>
   </si>
   <si>
-    <t xml:space="preserve">I169F</t>
-  </si>
-  <si>
     <t xml:space="preserve">E</t>
   </si>
   <si>
@@ -236,9 +212,6 @@
     <t xml:space="preserve">L73F</t>
   </si>
   <si>
-    <t xml:space="preserve">V75L</t>
-  </si>
-  <si>
     <t xml:space="preserve">M</t>
   </si>
   <si>
@@ -246,12 +219,6 @@
   </si>
   <si>
     <t xml:space="preserve">T198I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R203K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G204R</t>
   </si>
 </sst>
 </file>
@@ -605,10 +572,10 @@
         <v>241</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -619,13 +586,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8782</v>
+        <v>3037</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -636,13 +603,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>18060</v>
+        <v>8782</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -653,67 +620,67 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>23403</v>
+        <v>14408</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
         <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>28144</v>
+        <v>18060</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3037</v>
+        <v>23403</v>
       </c>
       <c r="B7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14408</v>
+        <v>28144</v>
       </c>
       <c r="B8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -724,10 +691,10 @@
         <v>25563</v>
       </c>
       <c r="B9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -849,7 +816,7 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
         <v>21</v>
@@ -917,7 +884,7 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -951,7 +918,7 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
@@ -1019,7 +986,7 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
         <v>27</v>
@@ -1036,7 +1003,7 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
         <v>28</v>
@@ -1214,10 +1181,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2416</v>
+        <v>2485</v>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
         <v>2</v>
@@ -1231,7 +1198,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2485</v>
+        <v>4002</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
@@ -1243,12 +1210,12 @@
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4002</v>
+        <v>12513</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
@@ -1260,12 +1227,12 @@
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>12513</v>
+        <v>13975</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
@@ -1277,12 +1244,12 @@
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>13975</v>
+        <v>15857</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
@@ -1294,12 +1261,12 @@
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>15857</v>
+        <v>17010</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
@@ -1311,12 +1278,12 @@
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>17010</v>
+        <v>18512</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -1328,12 +1295,12 @@
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>18512</v>
+        <v>18650</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -1345,12 +1312,12 @@
         <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>18650</v>
+        <v>22317</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
@@ -1359,15 +1326,15 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>22317</v>
+        <v>28068</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -1376,15 +1343,15 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>28068</v>
+        <v>29614</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -1393,32 +1360,32 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E48" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>29614</v>
+        <v>625</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>625</v>
+        <v>1403</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -1430,12 +1397,12 @@
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1403</v>
+        <v>2262</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -1447,12 +1414,12 @@
         <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2262</v>
+        <v>2334</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -1464,12 +1431,12 @@
         <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2334</v>
+        <v>2416</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -1481,7 +1448,7 @@
         <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -1503,7 +1470,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2903</v>
+        <v>3312</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -1520,7 +1487,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3312</v>
+        <v>5570</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -1537,7 +1504,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3714</v>
+        <v>6285</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -1554,7 +1521,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4579</v>
+        <v>7975</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -1571,7 +1538,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5570</v>
+        <v>8247</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -1588,7 +1555,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>6040</v>
+        <v>9615</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -1600,12 +1567,12 @@
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>6285</v>
+        <v>12112</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
@@ -1617,12 +1584,12 @@
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>7834</v>
+        <v>13459</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -1639,7 +1606,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>7975</v>
+        <v>16438</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -1651,12 +1618,12 @@
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>8047</v>
+        <v>17443</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -1668,12 +1635,12 @@
         <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>8247</v>
+        <v>18404</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
@@ -1685,12 +1652,12 @@
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>9615</v>
+        <v>18486</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
@@ -1702,12 +1669,12 @@
         <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>12112</v>
+        <v>18958</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -1719,12 +1686,12 @@
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>13459</v>
+        <v>18974</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -1736,12 +1703,12 @@
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>14648</v>
+        <v>19524</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -1753,12 +1720,12 @@
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>14817</v>
+        <v>20268</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
@@ -1775,7 +1742,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>16396</v>
+        <v>20580</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1787,12 +1754,12 @@
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>16438</v>
+        <v>21526</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
@@ -1804,12 +1771,12 @@
         <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>16669</v>
+        <v>21625</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
@@ -1818,15 +1785,15 @@
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>17443</v>
+        <v>21658</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -1835,15 +1802,15 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>18106</v>
+        <v>21792</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
@@ -1852,15 +1819,15 @@
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>18404</v>
+        <v>21793</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
@@ -1869,15 +1836,15 @@
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>18486</v>
+        <v>21974</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
@@ -1886,15 +1853,15 @@
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>18898</v>
+        <v>22162</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
@@ -1903,15 +1870,15 @@
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>18958</v>
+        <v>23987</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
@@ -1920,15 +1887,15 @@
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>18974</v>
+        <v>25214</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
@@ -1937,15 +1904,15 @@
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>19524</v>
+        <v>25218</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
@@ -1954,15 +1921,15 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>20268</v>
+        <v>26233</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
@@ -1971,15 +1938,15 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>20580</v>
+        <v>26333</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
@@ -1988,15 +1955,15 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>21526</v>
+        <v>26461</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
@@ -2005,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="E84" t="s">
         <v>65</v>
@@ -2013,7 +1980,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>21625</v>
+        <v>26690</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -2022,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="E85" t="s">
         <v>8</v>
@@ -2030,7 +1997,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>21658</v>
+        <v>28854</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
@@ -2039,15 +2006,15 @@
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>21792</v>
+        <v>28866</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
@@ -2056,15 +2023,15 @@
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E87" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>21793</v>
+        <v>29836</v>
       </c>
       <c r="B88" t="n">
         <v>1</v>
@@ -2073,298 +2040,9 @@
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E88" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>21974</v>
-      </c>
-      <c r="B89" t="n">
-        <v>1</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1</v>
-      </c>
-      <c r="D89" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>22162</v>
-      </c>
-      <c r="B90" t="n">
-        <v>1</v>
-      </c>
-      <c r="C90" t="n">
-        <v>1</v>
-      </c>
-      <c r="D90" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>23987</v>
-      </c>
-      <c r="B91" t="n">
-        <v>1</v>
-      </c>
-      <c r="C91" t="n">
-        <v>1</v>
-      </c>
-      <c r="D91" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>25214</v>
-      </c>
-      <c r="B92" t="n">
-        <v>1</v>
-      </c>
-      <c r="C92" t="n">
-        <v>1</v>
-      </c>
-      <c r="D92" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>25218</v>
-      </c>
-      <c r="B93" t="n">
-        <v>1</v>
-      </c>
-      <c r="C93" t="n">
-        <v>1</v>
-      </c>
-      <c r="D93" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>25897</v>
-      </c>
-      <c r="B94" t="n">
-        <v>1</v>
-      </c>
-      <c r="C94" t="n">
-        <v>1</v>
-      </c>
-      <c r="D94" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>26233</v>
-      </c>
-      <c r="B95" t="n">
-        <v>1</v>
-      </c>
-      <c r="C95" t="n">
-        <v>1</v>
-      </c>
-      <c r="D95" t="s">
-        <v>5</v>
-      </c>
-      <c r="E95" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>26333</v>
-      </c>
-      <c r="B96" t="n">
-        <v>1</v>
-      </c>
-      <c r="C96" t="n">
-        <v>1</v>
-      </c>
-      <c r="D96" t="s">
-        <v>71</v>
-      </c>
-      <c r="E96" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>26461</v>
-      </c>
-      <c r="B97" t="n">
-        <v>1</v>
-      </c>
-      <c r="C97" t="n">
-        <v>1</v>
-      </c>
-      <c r="D97" t="s">
-        <v>71</v>
-      </c>
-      <c r="E97" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>26467</v>
-      </c>
-      <c r="B98" t="n">
-        <v>1</v>
-      </c>
-      <c r="C98" t="n">
-        <v>1</v>
-      </c>
-      <c r="D98" t="s">
-        <v>71</v>
-      </c>
-      <c r="E98" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>26690</v>
-      </c>
-      <c r="B99" t="n">
-        <v>1</v>
-      </c>
-      <c r="C99" t="n">
-        <v>1</v>
-      </c>
-      <c r="D99" t="s">
-        <v>75</v>
-      </c>
-      <c r="E99" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>28854</v>
-      </c>
-      <c r="B100" t="n">
-        <v>1</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1</v>
-      </c>
-      <c r="D100" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>28866</v>
-      </c>
-      <c r="B101" t="n">
-        <v>1</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1</v>
-      </c>
-      <c r="D101" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>28881</v>
-      </c>
-      <c r="B102" t="n">
-        <v>1</v>
-      </c>
-      <c r="C102" t="n">
-        <v>1</v>
-      </c>
-      <c r="D102" t="s">
-        <v>17</v>
-      </c>
-      <c r="E102" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>28882</v>
-      </c>
-      <c r="B103" t="n">
-        <v>1</v>
-      </c>
-      <c r="C103" t="n">
-        <v>1</v>
-      </c>
-      <c r="D103" t="s">
-        <v>17</v>
-      </c>
-      <c r="E103" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>28883</v>
-      </c>
-      <c r="B104" t="n">
-        <v>1</v>
-      </c>
-      <c r="C104" t="n">
-        <v>1</v>
-      </c>
-      <c r="D104" t="s">
-        <v>17</v>
-      </c>
-      <c r="E104" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>29836</v>
-      </c>
-      <c r="B105" t="n">
-        <v>1</v>
-      </c>
-      <c r="C105" t="n">
-        <v>1</v>
-      </c>
-      <c r="D105" t="s">
-        <v>5</v>
-      </c>
-      <c r="E105" t="s">
         <v>6</v>
       </c>
     </row>

--- a/summaries/variantSummary.xlsx
+++ b/summaries/variantSummary.xlsx
@@ -86,13 +86,22 @@
     <t xml:space="preserve">M2374T</t>
   </si>
   <si>
+    <t xml:space="preserve">L3606F</t>
+  </si>
+  <si>
     <t xml:space="preserve">K811T</t>
   </si>
   <si>
+    <t xml:space="preserve">S412Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E942G</t>
+  </si>
+  <si>
     <t xml:space="preserve">A1283V</t>
   </si>
   <si>
-    <t xml:space="preserve">L3606F</t>
+    <t xml:space="preserve">P12S</t>
   </si>
   <si>
     <t xml:space="preserve">A879S</t>
@@ -101,15 +110,6 @@
     <t xml:space="preserve">Q72H</t>
   </si>
   <si>
-    <t xml:space="preserve">S412Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E942G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P12S</t>
-  </si>
-  <si>
     <t xml:space="preserve">M620T</t>
   </si>
   <si>
@@ -122,6 +122,9 @@
     <t xml:space="preserve">T1246I</t>
   </si>
   <si>
+    <t xml:space="preserve">M1769V</t>
+  </si>
+  <si>
     <t xml:space="preserve">T4083M</t>
   </si>
   <si>
@@ -159,9 +162,6 @@
   </si>
   <si>
     <t xml:space="preserve">L1016P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1769V</t>
   </si>
   <si>
     <t xml:space="preserve">T2007I</t>
@@ -572,10 +572,10 @@
         <v>241</v>
       </c>
       <c r="B2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -589,10 +589,10 @@
         <v>3037</v>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -606,10 +606,10 @@
         <v>8782</v>
       </c>
       <c r="B4" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -623,10 +623,10 @@
         <v>14408</v>
       </c>
       <c r="B5" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -640,10 +640,10 @@
         <v>18060</v>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -657,10 +657,10 @@
         <v>23403</v>
       </c>
       <c r="B7" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -674,10 +674,10 @@
         <v>28144</v>
       </c>
       <c r="B8" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -691,10 +691,10 @@
         <v>25563</v>
       </c>
       <c r="B9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -708,7 +708,7 @@
         <v>1059</v>
       </c>
       <c r="B10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
         <v>40</v>
@@ -773,27 +773,27 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11916</v>
+        <v>18877</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>18877</v>
+        <v>11916</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>9</v>
@@ -802,7 +802,7 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -827,7 +827,7 @@
         <v>18998</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
         <v>7</v>
@@ -844,7 +844,7 @@
         <v>29540</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
         <v>7</v>
@@ -909,16 +909,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>23994</v>
+        <v>11083</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
@@ -926,16 +926,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4113</v>
+        <v>23994</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
         <v>25</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>11083</v>
+        <v>1500</v>
       </c>
       <c r="B24" t="n">
         <v>2</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>20371</v>
+        <v>3090</v>
       </c>
       <c r="B25" t="n">
         <v>2</v>
@@ -972,29 +972,29 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>24197</v>
+        <v>4113</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>28109</v>
+        <v>13501</v>
       </c>
       <c r="B27" t="n">
         <v>2</v>
@@ -1003,15 +1003,15 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>29344</v>
+        <v>20371</v>
       </c>
       <c r="B28" t="n">
         <v>2</v>
@@ -1020,7 +1020,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
@@ -1028,50 +1028,50 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1500</v>
+        <v>24197</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3090</v>
+        <v>28109</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6388</v>
+        <v>29344</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>13501</v>
+        <v>6388</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -1091,7 +1091,7 @@
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -1215,10 +1215,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>12513</v>
+        <v>5570</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>13975</v>
+        <v>12513</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>15857</v>
+        <v>13975</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>17010</v>
+        <v>15857</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
@@ -1278,12 +1278,12 @@
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>18512</v>
+        <v>17010</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -1295,15 +1295,15 @@
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>18650</v>
+        <v>18512</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" t="n">
         <v>2</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>22317</v>
+        <v>18650</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
@@ -1326,7 +1326,7 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E46" t="s">
         <v>41</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>28068</v>
+        <v>22317</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -1343,7 +1343,7 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
         <v>42</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>29614</v>
+        <v>28068</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -1360,32 +1360,32 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
         <v>43</v>
-      </c>
-      <c r="E48" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>625</v>
+        <v>29614</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1403</v>
+        <v>625</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2262</v>
+        <v>1403</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2334</v>
+        <v>2262</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2416</v>
+        <v>2334</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -1448,12 +1448,12 @@
         <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2788</v>
+        <v>2416</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3312</v>
+        <v>2788</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -1482,12 +1482,12 @@
         <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5570</v>
+        <v>3312</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>

--- a/summaries/variantSummary.xlsx
+++ b/summaries/variantSummary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t xml:space="preserve">POS</t>
   </si>
@@ -71,121 +71,112 @@
     <t xml:space="preserve">S183Y</t>
   </si>
   <si>
+    <t xml:space="preserve">S3884L</t>
+  </si>
+  <si>
     <t xml:space="preserve">M1596I</t>
   </si>
   <si>
-    <t xml:space="preserve">S3884L</t>
-  </si>
-  <si>
     <t xml:space="preserve">G142S</t>
   </si>
   <si>
     <t xml:space="preserve">A1844V</t>
   </si>
   <si>
+    <t xml:space="preserve">A1283V</t>
+  </si>
+  <si>
     <t xml:space="preserve">M2374T</t>
   </si>
   <si>
+    <t xml:space="preserve">K811T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A879S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q72H</t>
+  </si>
+  <si>
     <t xml:space="preserve">L3606F</t>
   </si>
   <si>
-    <t xml:space="preserve">K811T</t>
+    <t xml:space="preserve">M620T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T325I</t>
   </si>
   <si>
     <t xml:space="preserve">S412Y</t>
   </si>
   <si>
+    <t xml:space="preserve">I652V</t>
+  </si>
+  <si>
     <t xml:space="preserve">E942G</t>
   </si>
   <si>
-    <t xml:space="preserve">A1283V</t>
+    <t xml:space="preserve">T1246I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4083M</t>
   </si>
   <si>
     <t xml:space="preserve">P12S</t>
   </si>
   <si>
-    <t xml:space="preserve">A879S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q72H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M620T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T325I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I652V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1246I</t>
+    <t xml:space="preserve">G170C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T797I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1728V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G252D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E59*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orf10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K120N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P380S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T666I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1016P</t>
   </si>
   <si>
     <t xml:space="preserve">M1769V</t>
   </si>
   <si>
-    <t xml:space="preserve">T4083M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G170C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T797I</t>
+    <t xml:space="preserve">T2007I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2661F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3117I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M991V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1326T</t>
   </si>
   <si>
     <t xml:space="preserve">P1682L</t>
   </si>
   <si>
-    <t xml:space="preserve">E1728V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G252D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E59*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orf10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K120N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P380S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T666I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A690V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1016P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2007I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S2661F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3117I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M991V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1326T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1646I</t>
-  </si>
-  <si>
     <t xml:space="preserve">A1831S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V1836G</t>
   </si>
   <si>
     <t xml:space="preserve">I2687V</t>
@@ -572,10 +563,10 @@
         <v>241</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -589,10 +580,10 @@
         <v>3037</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -606,10 +597,10 @@
         <v>8782</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -623,10 +614,10 @@
         <v>14408</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -640,10 +631,10 @@
         <v>18060</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -657,10 +648,10 @@
         <v>23403</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -674,10 +665,10 @@
         <v>28144</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -691,10 +682,10 @@
         <v>25563</v>
       </c>
       <c r="B9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -711,7 +702,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -756,13 +747,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>18255</v>
+        <v>11916</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -773,53 +764,53 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>18877</v>
+        <v>18255</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11916</v>
+        <v>21986</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>21986</v>
+        <v>18877</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -892,13 +883,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7386</v>
+        <v>4113</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -909,13 +900,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>11083</v>
+        <v>7386</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -926,41 +917,41 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>23994</v>
+        <v>20371</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1500</v>
+        <v>23994</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3090</v>
+        <v>24197</v>
       </c>
       <c r="B25" t="n">
         <v>2</v>
@@ -969,15 +960,15 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4113</v>
+        <v>28109</v>
       </c>
       <c r="B26" t="n">
         <v>2</v>
@@ -986,15 +977,15 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>13501</v>
+        <v>29344</v>
       </c>
       <c r="B27" t="n">
         <v>2</v>
@@ -1003,21 +994,21 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>20371</v>
+        <v>6388</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -1028,47 +1019,47 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>24197</v>
+        <v>11083</v>
       </c>
       <c r="B29" t="n">
         <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>28109</v>
+        <v>15326</v>
       </c>
       <c r="B30" t="n">
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>29344</v>
+        <v>28609</v>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -1079,7 +1070,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6388</v>
+        <v>29247</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -1088,66 +1079,66 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>15326</v>
+        <v>157</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>28609</v>
+        <v>1500</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>29247</v>
+        <v>2219</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>157</v>
+        <v>2485</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -1156,15 +1147,15 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2219</v>
+        <v>3090</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -1176,12 +1167,12 @@
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2485</v>
+        <v>4002</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -1193,12 +1184,12 @@
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4002</v>
+        <v>12513</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
@@ -1215,10 +1206,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5570</v>
+        <v>13501</v>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
@@ -1232,7 +1223,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>12513</v>
+        <v>13975</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
@@ -1249,7 +1240,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>13975</v>
+        <v>15857</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
@@ -1266,7 +1257,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>15857</v>
+        <v>17010</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
@@ -1278,12 +1269,12 @@
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>17010</v>
+        <v>18650</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -1295,21 +1286,21 @@
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>18512</v>
+        <v>22317</v>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
         <v>40</v>
@@ -1317,7 +1308,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>18650</v>
+        <v>28068</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
@@ -1326,7 +1317,7 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E46" t="s">
         <v>41</v>
@@ -1334,7 +1325,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>22317</v>
+        <v>29614</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -1343,24 +1334,24 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E47" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>28068</v>
+        <v>625</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E48" t="s">
         <v>43</v>
@@ -1368,24 +1359,24 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>29614</v>
+        <v>1403</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
         <v>44</v>
-      </c>
-      <c r="E49" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>625</v>
+        <v>2262</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -1402,7 +1393,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1403</v>
+        <v>2416</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -1414,12 +1405,12 @@
         <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2262</v>
+        <v>2788</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -1431,12 +1422,12 @@
         <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2334</v>
+        <v>3312</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -1448,12 +1439,12 @@
         <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2416</v>
+        <v>5570</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -1465,12 +1456,12 @@
         <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2788</v>
+        <v>6285</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -1482,12 +1473,12 @@
         <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3312</v>
+        <v>7975</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -1499,12 +1490,12 @@
         <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6285</v>
+        <v>8247</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -1516,12 +1507,12 @@
         <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>7975</v>
+        <v>9615</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -1533,12 +1524,12 @@
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>8247</v>
+        <v>12112</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -1550,12 +1541,12 @@
         <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>9615</v>
+        <v>13459</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -1567,12 +1558,12 @@
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>12112</v>
+        <v>16438</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
@@ -1584,12 +1575,12 @@
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>13459</v>
+        <v>17443</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -1601,12 +1592,12 @@
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>16438</v>
+        <v>18486</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -1618,12 +1609,12 @@
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>17443</v>
+        <v>18512</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -1635,12 +1626,12 @@
         <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>18404</v>
+        <v>18958</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
@@ -1652,12 +1643,12 @@
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>18486</v>
+        <v>19524</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
@@ -1674,7 +1665,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>18958</v>
+        <v>20268</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -1686,12 +1677,12 @@
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>18974</v>
+        <v>20580</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -1703,12 +1694,12 @@
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>19524</v>
+        <v>21526</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -1720,12 +1711,12 @@
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>20268</v>
+        <v>21625</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
@@ -1734,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
         <v>8</v>
@@ -1742,7 +1733,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>20580</v>
+        <v>21658</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1751,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
         <v>8</v>
@@ -1759,7 +1750,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>21526</v>
+        <v>21792</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
@@ -1768,15 +1759,15 @@
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>21625</v>
+        <v>21793</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
@@ -1788,12 +1779,12 @@
         <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>21658</v>
+        <v>21974</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -1805,12 +1796,12 @@
         <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>21792</v>
+        <v>22162</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
@@ -1822,12 +1813,12 @@
         <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>21793</v>
+        <v>23987</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
@@ -1839,12 +1830,12 @@
         <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>21974</v>
+        <v>25214</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
@@ -1856,12 +1847,12 @@
         <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>22162</v>
+        <v>25218</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
@@ -1873,12 +1864,12 @@
         <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>23987</v>
+        <v>26233</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
@@ -1887,15 +1878,15 @@
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>25214</v>
+        <v>26333</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
@@ -1904,15 +1895,15 @@
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>25218</v>
+        <v>26461</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
@@ -1921,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E81" t="s">
         <v>62</v>
@@ -1929,7 +1920,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>26233</v>
+        <v>26690</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
@@ -1938,15 +1929,15 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="E82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>26333</v>
+        <v>28854</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
@@ -1955,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E83" t="s">
         <v>64</v>
@@ -1963,7 +1954,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>26461</v>
+        <v>28866</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
@@ -1972,7 +1963,7 @@
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E84" t="s">
         <v>65</v>
@@ -1980,7 +1971,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>26690</v>
+        <v>29836</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -1989,60 +1980,9 @@
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="E85" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>28854</v>
-      </c>
-      <c r="B86" t="n">
-        <v>1</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1</v>
-      </c>
-      <c r="D86" t="s">
-        <v>17</v>
-      </c>
-      <c r="E86" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>28866</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1</v>
-      </c>
-      <c r="C87" t="n">
-        <v>1</v>
-      </c>
-      <c r="D87" t="s">
-        <v>17</v>
-      </c>
-      <c r="E87" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>29836</v>
-      </c>
-      <c r="B88" t="n">
-        <v>1</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1</v>
-      </c>
-      <c r="D88" t="s">
-        <v>5</v>
-      </c>
-      <c r="E88" t="s">
         <v>6</v>
       </c>
     </row>

--- a/summaries/variantSummary.xlsx
+++ b/summaries/variantSummary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t xml:space="preserve">POS</t>
   </si>
@@ -41,175 +41,265 @@
     <t xml:space="preserve">silent</t>
   </si>
   <si>
-    <t xml:space="preserve">P314L</t>
+    <t xml:space="preserve">L145F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K282E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q362L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I569K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A583D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A599S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L729I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K737E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P804T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y836F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F962S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1118A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1191F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1571I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1637A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1660L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N1709D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1818Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G1850S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1925V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2084F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y2171S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2189S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2486H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2686L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2697G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2707P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2721F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2900P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2970Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3093W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3454P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S3570G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E3882K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S3885P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3886E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4199R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E4313G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4330R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S6G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W281R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V415A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D436E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N591S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R717S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y739N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L740M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D751E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1058T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1219S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1883E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1896I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1900Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1905E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1907P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1958G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1960I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2257S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2294N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2338L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2390G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K2395T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y2460*</t>
   </si>
   <si>
     <t xml:space="preserve">S</t>
   </si>
   <si>
-    <t xml:space="preserve">D614G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orf8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S84L</t>
+    <t xml:space="preserve">D40H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K41Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N61H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F464L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D808V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F833L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L858H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L977F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1064P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1149N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1150K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1254S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1266R</t>
   </si>
   <si>
     <t xml:space="preserve">orf3a</t>
   </si>
   <si>
-    <t xml:space="preserve">Q57H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T265I</t>
+    <t xml:space="preserve">K75E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L139S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I186N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y206H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T248K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orf6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q56H</t>
   </si>
   <si>
     <t xml:space="preserve">N</t>
   </si>
   <si>
-    <t xml:space="preserve">S183Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S3884L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1596I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G142S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1844V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1283V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2374T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K811T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A879S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q72H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L3606F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M620T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T325I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S412Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I652V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E942G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1246I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4083M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P12S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G170C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T797I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E1728V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G252D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E59*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orf10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K120N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P380S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T666I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1016P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1769V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2007I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S2661F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3117I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M991V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1326T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1682L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1831S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2687V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K77I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D138H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P809S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G1219V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T30I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L73F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S194L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T198I</t>
+    <t xml:space="preserve">K372Q</t>
   </si>
 </sst>
 </file>
@@ -560,13 +650,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>241</v>
+        <v>29872</v>
       </c>
       <c r="B2" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -577,13 +667,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3037</v>
+        <v>1963</v>
       </c>
       <c r="B3" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -594,288 +684,288 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8782</v>
+        <v>202</v>
       </c>
       <c r="B4" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14408</v>
+        <v>241</v>
       </c>
       <c r="B5" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>18060</v>
+        <v>700</v>
       </c>
       <c r="B6" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>23403</v>
+        <v>1109</v>
       </c>
       <c r="B7" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
         <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>28144</v>
+        <v>1350</v>
       </c>
       <c r="B8" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>25563</v>
+        <v>1960</v>
       </c>
       <c r="B9" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1059</v>
+        <v>1971</v>
       </c>
       <c r="B10" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>16260</v>
+        <v>2013</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>28821</v>
+        <v>2060</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11916</v>
+        <v>2122</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>18255</v>
+        <v>2450</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>21986</v>
+        <v>2474</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>18877</v>
+        <v>2675</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>18998</v>
+        <v>2772</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>29540</v>
+        <v>3150</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1918</v>
+        <v>3618</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>23230</v>
+        <v>3778</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -883,47 +973,47 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4113</v>
+        <v>3838</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>7386</v>
+        <v>3991</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>20371</v>
+        <v>4507</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -934,217 +1024,217 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23994</v>
+        <v>4966</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24197</v>
+        <v>4976</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>28109</v>
+        <v>5174</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>29344</v>
+        <v>5244</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6388</v>
+        <v>5390</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>11083</v>
+        <v>5647</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>15326</v>
+        <v>5717</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>28609</v>
+        <v>5813</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>29247</v>
+        <v>6022</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>157</v>
+        <v>6038</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1500</v>
+        <v>6400</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2219</v>
+        <v>6517</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2485</v>
+        <v>6634</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -1155,194 +1245,194 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3090</v>
+        <v>6697</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4002</v>
+        <v>6777</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>12513</v>
+        <v>6832</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>13501</v>
+        <v>7549</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>13975</v>
+        <v>7714</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>15857</v>
+        <v>7723</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>17010</v>
+        <v>8322</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>18650</v>
+        <v>8347</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>22317</v>
+        <v>8354</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>28068</v>
+        <v>8385</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>29614</v>
+        <v>8428</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>625</v>
+        <v>8963</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -1354,12 +1444,12 @@
         <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1403</v>
+        <v>9097</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
@@ -1371,12 +1461,12 @@
         <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2262</v>
+        <v>9173</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -1388,12 +1478,12 @@
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2416</v>
+        <v>9544</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -1405,12 +1495,12 @@
         <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2788</v>
+        <v>10625</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -1422,12 +1512,12 @@
         <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3312</v>
+        <v>10627</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -1439,12 +1529,12 @@
         <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5570</v>
+        <v>10973</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -1456,12 +1546,12 @@
         <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6285</v>
+        <v>11116</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -1473,12 +1563,12 @@
         <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>7975</v>
+        <v>11909</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -1490,12 +1580,12 @@
         <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>8247</v>
+        <v>11918</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -1507,12 +1597,12 @@
         <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>9615</v>
+        <v>11921</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -1524,12 +1614,12 @@
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>12112</v>
+        <v>11962</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -1546,7 +1636,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>13459</v>
+        <v>12862</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -1558,12 +1648,12 @@
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>16438</v>
+        <v>13203</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
@@ -1575,12 +1665,12 @@
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>17443</v>
+        <v>13253</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -1592,12 +1682,12 @@
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>18486</v>
+        <v>13483</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -1609,12 +1699,12 @@
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>18512</v>
+        <v>13779</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -1626,12 +1716,12 @@
         <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>18958</v>
+        <v>14308</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
@@ -1643,12 +1733,12 @@
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>19524</v>
+        <v>14679</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
@@ -1665,7 +1755,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>20268</v>
+        <v>14711</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -1677,12 +1767,12 @@
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>20580</v>
+        <v>14775</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -1694,12 +1784,12 @@
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>21526</v>
+        <v>15239</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -1711,12 +1801,12 @@
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>21625</v>
+        <v>15618</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
@@ -1725,15 +1815,15 @@
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>21658</v>
+        <v>15682</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1742,15 +1832,15 @@
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>21792</v>
+        <v>15685</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
@@ -1759,15 +1849,15 @@
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>21793</v>
+        <v>15720</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
@@ -1776,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E73" t="s">
         <v>56</v>
@@ -1784,7 +1874,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>21974</v>
+        <v>15903</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -1793,15 +1883,15 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>22162</v>
+        <v>15909</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
@@ -1810,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E75" t="s">
         <v>8</v>
@@ -1818,7 +1908,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>23987</v>
+        <v>15954</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
@@ -1827,15 +1917,15 @@
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>25214</v>
+        <v>16639</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
@@ -1844,15 +1934,15 @@
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>25218</v>
+        <v>17122</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
@@ -1861,15 +1951,15 @@
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E78" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>26233</v>
+        <v>17556</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
@@ -1878,15 +1968,15 @@
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E79" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>26333</v>
+        <v>19114</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
@@ -1895,15 +1985,15 @@
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>26461</v>
+        <v>19154</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
@@ -1912,15 +2002,15 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" t="s">
         <v>60</v>
-      </c>
-      <c r="E81" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>26690</v>
+        <v>19165</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
@@ -1929,15 +2019,15 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>28854</v>
+        <v>19181</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
@@ -1946,15 +2036,15 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E83" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>28866</v>
+        <v>19187</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
@@ -1963,15 +2053,15 @@
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E84" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>29836</v>
+        <v>19339</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -1980,9 +2070,774 @@
         <v>1</v>
       </c>
       <c r="D85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>19345</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>20238</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>20348</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>20480</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>20636</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>20651</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>20847</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>21649</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>72</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>21679</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>72</v>
+      </c>
+      <c r="E94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>21680</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>72</v>
+      </c>
+      <c r="E95" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>21683</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>72</v>
+      </c>
+      <c r="E96" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>21700</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>72</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>21743</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>72</v>
+      </c>
+      <c r="E98" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>22114</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>72</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>22300</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>72</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>22954</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>72</v>
+      </c>
+      <c r="E101" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>23335</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>72</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>23985</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>72</v>
+      </c>
+      <c r="E103" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>24059</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>72</v>
+      </c>
+      <c r="E104" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>24100</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
+        <v>72</v>
+      </c>
+      <c r="E105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>24135</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>72</v>
+      </c>
+      <c r="E106" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>24199</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" t="s">
+        <v>72</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>24493</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" t="s">
+        <v>72</v>
+      </c>
+      <c r="E108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>24753</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="s">
+        <v>72</v>
+      </c>
+      <c r="E109" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>25009</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>72</v>
+      </c>
+      <c r="E110" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>25010</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="s">
+        <v>72</v>
+      </c>
+      <c r="E111" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>25322</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="s">
+        <v>72</v>
+      </c>
+      <c r="E112" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>25359</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="s">
+        <v>72</v>
+      </c>
+      <c r="E113" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>25603</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="s">
+        <v>86</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>25615</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
+        <v>86</v>
+      </c>
+      <c r="E115" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>25808</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
+        <v>86</v>
+      </c>
+      <c r="E116" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>25949</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>86</v>
+      </c>
+      <c r="E117" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>26008</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
+        <v>86</v>
+      </c>
+      <c r="E118" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>26130</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="s">
+        <v>86</v>
+      </c>
+      <c r="E119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>26135</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="s">
+        <v>86</v>
+      </c>
+      <c r="E120" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>27369</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="s">
+        <v>92</v>
+      </c>
+      <c r="E121" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>29387</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>94</v>
+      </c>
+      <c r="E122" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="s">
         <v>5</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>29858</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="s">
+        <v>5</v>
+      </c>
+      <c r="E124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>29865</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>29869</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="s">
+        <v>5</v>
+      </c>
+      <c r="E126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>29871</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>29873</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>29876</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="s">
+        <v>5</v>
+      </c>
+      <c r="E129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>29881</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130" t="s">
         <v>6</v>
       </c>
     </row>

--- a/summaries/variantSummary.xlsx
+++ b/summaries/variantSummary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t xml:space="preserve">POS</t>
   </si>
@@ -41,265 +41,175 @@
     <t xml:space="preserve">silent</t>
   </si>
   <si>
-    <t xml:space="preserve">L145F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K282E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q362L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I569K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A583D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A599S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L729I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K737E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P804T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y836F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F962S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V1118A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1191F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F1571I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1637A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1660L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N1709D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H1818Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G1850S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F1925V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2084F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y2171S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2189S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2486H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2686L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2697G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2707P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2721F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S2900P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2970Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3093W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3454P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S3570G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3882K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S3885P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3886E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S4199R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E4313G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C4330R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S6G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W281R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V415A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D436E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N591S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R717S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y739N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L740M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D751E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1058T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1219S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K1883E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1896I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K1900Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V1905E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1907P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1958G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F1960I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2257S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S2294N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S2338L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2390G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K2395T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y2460*</t>
+    <t xml:space="preserve">P314L</t>
   </si>
   <si>
     <t xml:space="preserve">S</t>
   </si>
   <si>
-    <t xml:space="preserve">D40H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K41Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N61H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F464L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D808V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F833L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L858H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L977F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H1064P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K1149N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E1150K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1254S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K1266R</t>
+    <t xml:space="preserve">D614G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orf8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S84L</t>
   </si>
   <si>
     <t xml:space="preserve">orf3a</t>
   </si>
   <si>
-    <t xml:space="preserve">K75E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L139S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I186N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y206H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T248K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orf6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q56H</t>
+    <t xml:space="preserve">Q57H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T265I</t>
   </si>
   <si>
     <t xml:space="preserve">N</t>
   </si>
   <si>
-    <t xml:space="preserve">K372Q</t>
+    <t xml:space="preserve">S183Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S3884L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1596I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G142S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1844V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1283V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2374T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K811T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A879S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q72H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L3606F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M620T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T325I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S412Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I652V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E942G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1246I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4083M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P12S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G170C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T797I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1728V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G252D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E59*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orf10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K120N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P380S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T666I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1016P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1769V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2007I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2661F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3117I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M991V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1326T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1682L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1831S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2687V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K77I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D138H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P809S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G1219V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T30I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L73F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S194L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T198I</t>
   </si>
 </sst>
 </file>
@@ -650,13 +560,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>29872</v>
+        <v>241</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -667,13 +577,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1963</v>
+        <v>3037</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -684,288 +594,288 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>202</v>
+        <v>8782</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>241</v>
+        <v>14408</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>700</v>
+        <v>18060</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1109</v>
+        <v>23403</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1350</v>
+        <v>28144</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1960</v>
+        <v>25563</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1971</v>
+        <v>1059</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2013</v>
+        <v>16260</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2060</v>
+        <v>28821</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2122</v>
+        <v>11916</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2450</v>
+        <v>18255</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2474</v>
+        <v>21986</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2675</v>
+        <v>18877</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2772</v>
+        <v>18998</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3150</v>
+        <v>29540</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3618</v>
+        <v>1918</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3778</v>
+        <v>23230</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -973,47 +883,47 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3838</v>
+        <v>4113</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3991</v>
+        <v>7386</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4507</v>
+        <v>20371</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -1024,217 +934,217 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4966</v>
+        <v>23994</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4976</v>
+        <v>24197</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5174</v>
+        <v>28109</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5244</v>
+        <v>29344</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5390</v>
+        <v>6388</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5647</v>
+        <v>11083</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5717</v>
+        <v>15326</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5813</v>
+        <v>28609</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6022</v>
+        <v>29247</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6038</v>
+        <v>157</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6400</v>
+        <v>1500</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6517</v>
+        <v>2219</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6634</v>
+        <v>2485</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -1245,194 +1155,194 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6697</v>
+        <v>3090</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6777</v>
+        <v>4002</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6832</v>
+        <v>12513</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>7549</v>
+        <v>13501</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>7714</v>
+        <v>13975</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>7723</v>
+        <v>15857</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>8322</v>
+        <v>17010</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>8347</v>
+        <v>18650</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>8354</v>
+        <v>22317</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>8385</v>
+        <v>28068</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8428</v>
+        <v>29614</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>8963</v>
+        <v>625</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -1444,12 +1354,12 @@
         <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>9097</v>
+        <v>1403</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
@@ -1461,12 +1371,12 @@
         <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9173</v>
+        <v>2262</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -1478,12 +1388,12 @@
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>9544</v>
+        <v>2416</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -1495,12 +1405,12 @@
         <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>10625</v>
+        <v>2788</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -1512,12 +1422,12 @@
         <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10627</v>
+        <v>3312</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -1529,12 +1439,12 @@
         <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>10973</v>
+        <v>5570</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -1546,12 +1456,12 @@
         <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>11116</v>
+        <v>6285</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -1563,12 +1473,12 @@
         <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>11909</v>
+        <v>7975</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -1580,12 +1490,12 @@
         <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>11918</v>
+        <v>8247</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -1597,12 +1507,12 @@
         <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>11921</v>
+        <v>9615</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -1614,12 +1524,12 @@
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>11962</v>
+        <v>12112</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -1636,7 +1546,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>12862</v>
+        <v>13459</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -1648,12 +1558,12 @@
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>13203</v>
+        <v>16438</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
@@ -1665,12 +1575,12 @@
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>13253</v>
+        <v>17443</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -1682,12 +1592,12 @@
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>13483</v>
+        <v>18486</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -1699,12 +1609,12 @@
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>13779</v>
+        <v>18512</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -1716,12 +1626,12 @@
         <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>14308</v>
+        <v>18958</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
@@ -1733,12 +1643,12 @@
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>14679</v>
+        <v>19524</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
@@ -1755,7 +1665,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>14711</v>
+        <v>20268</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -1767,12 +1677,12 @@
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>14775</v>
+        <v>20580</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -1784,12 +1694,12 @@
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>15239</v>
+        <v>21526</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -1801,12 +1711,12 @@
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>15618</v>
+        <v>21625</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
@@ -1815,15 +1725,15 @@
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>15682</v>
+        <v>21658</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1832,15 +1742,15 @@
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>15685</v>
+        <v>21792</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
@@ -1849,15 +1759,15 @@
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>15720</v>
+        <v>21793</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
@@ -1866,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
         <v>56</v>
@@ -1874,7 +1784,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>15903</v>
+        <v>21974</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -1883,15 +1793,15 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>15909</v>
+        <v>22162</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
@@ -1900,7 +1810,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
         <v>8</v>
@@ -1908,7 +1818,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>15954</v>
+        <v>23987</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
@@ -1917,15 +1827,15 @@
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>16639</v>
+        <v>25214</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
@@ -1934,15 +1844,15 @@
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>17122</v>
+        <v>25218</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
@@ -1951,15 +1861,15 @@
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>17556</v>
+        <v>26233</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
@@ -1968,15 +1878,15 @@
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>19114</v>
+        <v>26333</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
@@ -1985,15 +1895,15 @@
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="E80" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>19154</v>
+        <v>26461</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
@@ -2002,15 +1912,15 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="E81" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>19165</v>
+        <v>26690</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
@@ -2019,15 +1929,15 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="E82" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>19181</v>
+        <v>28854</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
@@ -2036,15 +1946,15 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E83" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>19187</v>
+        <v>28866</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
@@ -2053,15 +1963,15 @@
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E84" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>19339</v>
+        <v>29836</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -2070,774 +1980,9 @@
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E85" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>19345</v>
-      </c>
-      <c r="B86" t="n">
-        <v>1</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1</v>
-      </c>
-      <c r="D86" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>20238</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1</v>
-      </c>
-      <c r="C87" t="n">
-        <v>1</v>
-      </c>
-      <c r="D87" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>20348</v>
-      </c>
-      <c r="B88" t="n">
-        <v>1</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1</v>
-      </c>
-      <c r="D88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E88" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>20480</v>
-      </c>
-      <c r="B89" t="n">
-        <v>1</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1</v>
-      </c>
-      <c r="D89" t="s">
-        <v>7</v>
-      </c>
-      <c r="E89" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>20636</v>
-      </c>
-      <c r="B90" t="n">
-        <v>1</v>
-      </c>
-      <c r="C90" t="n">
-        <v>1</v>
-      </c>
-      <c r="D90" t="s">
-        <v>7</v>
-      </c>
-      <c r="E90" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>20651</v>
-      </c>
-      <c r="B91" t="n">
-        <v>1</v>
-      </c>
-      <c r="C91" t="n">
-        <v>1</v>
-      </c>
-      <c r="D91" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>20847</v>
-      </c>
-      <c r="B92" t="n">
-        <v>1</v>
-      </c>
-      <c r="C92" t="n">
-        <v>1</v>
-      </c>
-      <c r="D92" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>21649</v>
-      </c>
-      <c r="B93" t="n">
-        <v>1</v>
-      </c>
-      <c r="C93" t="n">
-        <v>1</v>
-      </c>
-      <c r="D93" t="s">
-        <v>72</v>
-      </c>
-      <c r="E93" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>21679</v>
-      </c>
-      <c r="B94" t="n">
-        <v>1</v>
-      </c>
-      <c r="C94" t="n">
-        <v>1</v>
-      </c>
-      <c r="D94" t="s">
-        <v>72</v>
-      </c>
-      <c r="E94" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>21680</v>
-      </c>
-      <c r="B95" t="n">
-        <v>1</v>
-      </c>
-      <c r="C95" t="n">
-        <v>1</v>
-      </c>
-      <c r="D95" t="s">
-        <v>72</v>
-      </c>
-      <c r="E95" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>21683</v>
-      </c>
-      <c r="B96" t="n">
-        <v>1</v>
-      </c>
-      <c r="C96" t="n">
-        <v>1</v>
-      </c>
-      <c r="D96" t="s">
-        <v>72</v>
-      </c>
-      <c r="E96" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>21700</v>
-      </c>
-      <c r="B97" t="n">
-        <v>1</v>
-      </c>
-      <c r="C97" t="n">
-        <v>1</v>
-      </c>
-      <c r="D97" t="s">
-        <v>72</v>
-      </c>
-      <c r="E97" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>21743</v>
-      </c>
-      <c r="B98" t="n">
-        <v>1</v>
-      </c>
-      <c r="C98" t="n">
-        <v>1</v>
-      </c>
-      <c r="D98" t="s">
-        <v>72</v>
-      </c>
-      <c r="E98" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>22114</v>
-      </c>
-      <c r="B99" t="n">
-        <v>1</v>
-      </c>
-      <c r="C99" t="n">
-        <v>1</v>
-      </c>
-      <c r="D99" t="s">
-        <v>72</v>
-      </c>
-      <c r="E99" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>22300</v>
-      </c>
-      <c r="B100" t="n">
-        <v>1</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1</v>
-      </c>
-      <c r="D100" t="s">
-        <v>72</v>
-      </c>
-      <c r="E100" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>22954</v>
-      </c>
-      <c r="B101" t="n">
-        <v>1</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1</v>
-      </c>
-      <c r="D101" t="s">
-        <v>72</v>
-      </c>
-      <c r="E101" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>23335</v>
-      </c>
-      <c r="B102" t="n">
-        <v>1</v>
-      </c>
-      <c r="C102" t="n">
-        <v>1</v>
-      </c>
-      <c r="D102" t="s">
-        <v>72</v>
-      </c>
-      <c r="E102" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>23985</v>
-      </c>
-      <c r="B103" t="n">
-        <v>1</v>
-      </c>
-      <c r="C103" t="n">
-        <v>1</v>
-      </c>
-      <c r="D103" t="s">
-        <v>72</v>
-      </c>
-      <c r="E103" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>24059</v>
-      </c>
-      <c r="B104" t="n">
-        <v>1</v>
-      </c>
-      <c r="C104" t="n">
-        <v>1</v>
-      </c>
-      <c r="D104" t="s">
-        <v>72</v>
-      </c>
-      <c r="E104" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>24100</v>
-      </c>
-      <c r="B105" t="n">
-        <v>1</v>
-      </c>
-      <c r="C105" t="n">
-        <v>1</v>
-      </c>
-      <c r="D105" t="s">
-        <v>72</v>
-      </c>
-      <c r="E105" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>24135</v>
-      </c>
-      <c r="B106" t="n">
-        <v>1</v>
-      </c>
-      <c r="C106" t="n">
-        <v>1</v>
-      </c>
-      <c r="D106" t="s">
-        <v>72</v>
-      </c>
-      <c r="E106" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>24199</v>
-      </c>
-      <c r="B107" t="n">
-        <v>1</v>
-      </c>
-      <c r="C107" t="n">
-        <v>1</v>
-      </c>
-      <c r="D107" t="s">
-        <v>72</v>
-      </c>
-      <c r="E107" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>24493</v>
-      </c>
-      <c r="B108" t="n">
-        <v>1</v>
-      </c>
-      <c r="C108" t="n">
-        <v>1</v>
-      </c>
-      <c r="D108" t="s">
-        <v>72</v>
-      </c>
-      <c r="E108" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>24753</v>
-      </c>
-      <c r="B109" t="n">
-        <v>1</v>
-      </c>
-      <c r="C109" t="n">
-        <v>1</v>
-      </c>
-      <c r="D109" t="s">
-        <v>72</v>
-      </c>
-      <c r="E109" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>25009</v>
-      </c>
-      <c r="B110" t="n">
-        <v>1</v>
-      </c>
-      <c r="C110" t="n">
-        <v>1</v>
-      </c>
-      <c r="D110" t="s">
-        <v>72</v>
-      </c>
-      <c r="E110" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>25010</v>
-      </c>
-      <c r="B111" t="n">
-        <v>1</v>
-      </c>
-      <c r="C111" t="n">
-        <v>1</v>
-      </c>
-      <c r="D111" t="s">
-        <v>72</v>
-      </c>
-      <c r="E111" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>25322</v>
-      </c>
-      <c r="B112" t="n">
-        <v>1</v>
-      </c>
-      <c r="C112" t="n">
-        <v>1</v>
-      </c>
-      <c r="D112" t="s">
-        <v>72</v>
-      </c>
-      <c r="E112" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>25359</v>
-      </c>
-      <c r="B113" t="n">
-        <v>1</v>
-      </c>
-      <c r="C113" t="n">
-        <v>1</v>
-      </c>
-      <c r="D113" t="s">
-        <v>72</v>
-      </c>
-      <c r="E113" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>25603</v>
-      </c>
-      <c r="B114" t="n">
-        <v>1</v>
-      </c>
-      <c r="C114" t="n">
-        <v>1</v>
-      </c>
-      <c r="D114" t="s">
-        <v>86</v>
-      </c>
-      <c r="E114" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>25615</v>
-      </c>
-      <c r="B115" t="n">
-        <v>1</v>
-      </c>
-      <c r="C115" t="n">
-        <v>1</v>
-      </c>
-      <c r="D115" t="s">
-        <v>86</v>
-      </c>
-      <c r="E115" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>25808</v>
-      </c>
-      <c r="B116" t="n">
-        <v>1</v>
-      </c>
-      <c r="C116" t="n">
-        <v>1</v>
-      </c>
-      <c r="D116" t="s">
-        <v>86</v>
-      </c>
-      <c r="E116" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>25949</v>
-      </c>
-      <c r="B117" t="n">
-        <v>1</v>
-      </c>
-      <c r="C117" t="n">
-        <v>1</v>
-      </c>
-      <c r="D117" t="s">
-        <v>86</v>
-      </c>
-      <c r="E117" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>26008</v>
-      </c>
-      <c r="B118" t="n">
-        <v>1</v>
-      </c>
-      <c r="C118" t="n">
-        <v>1</v>
-      </c>
-      <c r="D118" t="s">
-        <v>86</v>
-      </c>
-      <c r="E118" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>26130</v>
-      </c>
-      <c r="B119" t="n">
-        <v>1</v>
-      </c>
-      <c r="C119" t="n">
-        <v>1</v>
-      </c>
-      <c r="D119" t="s">
-        <v>86</v>
-      </c>
-      <c r="E119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>26135</v>
-      </c>
-      <c r="B120" t="n">
-        <v>1</v>
-      </c>
-      <c r="C120" t="n">
-        <v>1</v>
-      </c>
-      <c r="D120" t="s">
-        <v>86</v>
-      </c>
-      <c r="E120" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>27369</v>
-      </c>
-      <c r="B121" t="n">
-        <v>1</v>
-      </c>
-      <c r="C121" t="n">
-        <v>1</v>
-      </c>
-      <c r="D121" t="s">
-        <v>92</v>
-      </c>
-      <c r="E121" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>29387</v>
-      </c>
-      <c r="B122" t="n">
-        <v>1</v>
-      </c>
-      <c r="C122" t="n">
-        <v>1</v>
-      </c>
-      <c r="D122" t="s">
-        <v>94</v>
-      </c>
-      <c r="E122" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>29839</v>
-      </c>
-      <c r="B123" t="n">
-        <v>1</v>
-      </c>
-      <c r="C123" t="n">
-        <v>1</v>
-      </c>
-      <c r="D123" t="s">
-        <v>5</v>
-      </c>
-      <c r="E123" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>29858</v>
-      </c>
-      <c r="B124" t="n">
-        <v>1</v>
-      </c>
-      <c r="C124" t="n">
-        <v>1</v>
-      </c>
-      <c r="D124" t="s">
-        <v>5</v>
-      </c>
-      <c r="E124" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>29865</v>
-      </c>
-      <c r="B125" t="n">
-        <v>1</v>
-      </c>
-      <c r="C125" t="n">
-        <v>1</v>
-      </c>
-      <c r="D125" t="s">
-        <v>5</v>
-      </c>
-      <c r="E125" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>29869</v>
-      </c>
-      <c r="B126" t="n">
-        <v>1</v>
-      </c>
-      <c r="C126" t="n">
-        <v>1</v>
-      </c>
-      <c r="D126" t="s">
-        <v>5</v>
-      </c>
-      <c r="E126" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>29871</v>
-      </c>
-      <c r="B127" t="n">
-        <v>1</v>
-      </c>
-      <c r="C127" t="n">
-        <v>1</v>
-      </c>
-      <c r="D127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E127" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>29873</v>
-      </c>
-      <c r="B128" t="n">
-        <v>1</v>
-      </c>
-      <c r="C128" t="n">
-        <v>1</v>
-      </c>
-      <c r="D128" t="s">
-        <v>5</v>
-      </c>
-      <c r="E128" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>29876</v>
-      </c>
-      <c r="B129" t="n">
-        <v>1</v>
-      </c>
-      <c r="C129" t="n">
-        <v>1</v>
-      </c>
-      <c r="D129" t="s">
-        <v>5</v>
-      </c>
-      <c r="E129" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>29881</v>
-      </c>
-      <c r="B130" t="n">
-        <v>1</v>
-      </c>
-      <c r="C130" t="n">
-        <v>1</v>
-      </c>
-      <c r="D130" t="s">
-        <v>5</v>
-      </c>
-      <c r="E130" t="s">
         <v>6</v>
       </c>
     </row>

--- a/summaries/variantSummary.xlsx
+++ b/summaries/variantSummary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t xml:space="preserve">POS</t>
   </si>
@@ -65,21 +65,21 @@
     <t xml:space="preserve">T265I</t>
   </si>
   <si>
+    <t xml:space="preserve">S3884L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1596I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G142S</t>
+  </si>
+  <si>
     <t xml:space="preserve">N</t>
   </si>
   <si>
     <t xml:space="preserve">S183Y</t>
   </si>
   <si>
-    <t xml:space="preserve">S3884L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1596I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G142S</t>
-  </si>
-  <si>
     <t xml:space="preserve">A1844V</t>
   </si>
   <si>
@@ -101,73 +101,67 @@
     <t xml:space="preserve">L3606F</t>
   </si>
   <si>
+    <t xml:space="preserve">T325I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S412Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I652V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E942G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1246I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4083M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P12S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G170C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T797I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1728V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G252D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E59*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orf10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K120N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P380S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T666I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1016P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1769V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2007I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3117I</t>
+  </si>
+  <si>
     <t xml:space="preserve">M620T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T325I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S412Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I652V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E942G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1246I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4083M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P12S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G170C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T797I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E1728V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G252D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E59*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orf10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K120N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P380S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T666I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1016P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1769V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2007I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S2661F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3117I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M991V</t>
   </si>
   <si>
     <t xml:space="preserve">A1326T</t>
@@ -563,10 +557,10 @@
         <v>241</v>
       </c>
       <c r="B2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -580,10 +574,10 @@
         <v>3037</v>
       </c>
       <c r="B3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -597,10 +591,10 @@
         <v>8782</v>
       </c>
       <c r="B4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -614,10 +608,10 @@
         <v>14408</v>
       </c>
       <c r="B5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -631,10 +625,10 @@
         <v>18060</v>
       </c>
       <c r="B6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -648,10 +642,10 @@
         <v>23403</v>
       </c>
       <c r="B7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -665,10 +659,10 @@
         <v>28144</v>
       </c>
       <c r="B8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -682,10 +676,10 @@
         <v>25563</v>
       </c>
       <c r="B9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -699,10 +693,10 @@
         <v>1059</v>
       </c>
       <c r="B10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -713,44 +707,44 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>16260</v>
+        <v>11916</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>28821</v>
+        <v>16260</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11916</v>
+        <v>18255</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
         <v>9</v>
@@ -759,12 +753,12 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>18255</v>
+        <v>21986</v>
       </c>
       <c r="B14" t="n">
         <v>5</v>
@@ -773,24 +767,24 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>21986</v>
+        <v>28821</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
         <v>21</v>
@@ -994,7 +988,7 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
@@ -1036,24 +1030,24 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>15326</v>
+        <v>28609</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>28609</v>
+        <v>29247</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -1062,32 +1056,32 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>29247</v>
+        <v>157</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>157</v>
+        <v>1500</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -1096,15 +1090,15 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1500</v>
+        <v>2219</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -1121,7 +1115,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2219</v>
+        <v>2485</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -1133,12 +1127,12 @@
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2485</v>
+        <v>3090</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -1150,12 +1144,12 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3090</v>
+        <v>4002</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -1172,7 +1166,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4002</v>
+        <v>12513</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -1189,7 +1183,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>12513</v>
+        <v>13501</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
@@ -1206,7 +1200,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>13501</v>
+        <v>13975</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
@@ -1223,7 +1217,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>13975</v>
+        <v>15857</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
@@ -1240,7 +1234,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>15857</v>
+        <v>17010</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
@@ -1252,12 +1246,12 @@
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>17010</v>
+        <v>18650</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
@@ -1269,12 +1263,12 @@
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>18650</v>
+        <v>22317</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -1283,7 +1277,7 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
         <v>39</v>
@@ -1291,7 +1285,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>22317</v>
+        <v>28068</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -1300,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E45" t="s">
         <v>40</v>
@@ -1308,7 +1302,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>28068</v>
+        <v>29614</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
@@ -1317,32 +1311,32 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>29614</v>
+        <v>625</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
         <v>42</v>
-      </c>
-      <c r="E47" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>625</v>
+        <v>1403</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -1359,7 +1353,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1403</v>
+        <v>2262</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
@@ -1376,7 +1370,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2262</v>
+        <v>2416</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -1388,12 +1382,12 @@
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2416</v>
+        <v>2788</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -1410,7 +1404,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2788</v>
+        <v>3312</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -1422,12 +1416,12 @@
         <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3312</v>
+        <v>5570</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -1444,7 +1438,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5570</v>
+        <v>6285</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -1461,7 +1455,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6285</v>
+        <v>7975</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -1473,12 +1467,12 @@
         <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>7975</v>
+        <v>9615</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -1490,12 +1484,12 @@
         <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>8247</v>
+        <v>12112</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -1507,12 +1501,12 @@
         <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>9615</v>
+        <v>13459</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -1524,12 +1518,12 @@
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>12112</v>
+        <v>15326</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -1541,12 +1535,12 @@
         <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>13459</v>
+        <v>17443</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -1558,12 +1552,12 @@
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>16438</v>
+        <v>18486</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
@@ -1575,12 +1569,12 @@
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>17443</v>
+        <v>18512</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -1592,12 +1586,12 @@
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>18486</v>
+        <v>18958</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -1609,12 +1603,12 @@
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>18512</v>
+        <v>19524</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -1626,12 +1620,12 @@
         <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>18958</v>
+        <v>20268</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
@@ -1643,12 +1637,12 @@
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>19524</v>
+        <v>20580</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
@@ -1665,7 +1659,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>20268</v>
+        <v>21526</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -1677,12 +1671,12 @@
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>20580</v>
+        <v>21625</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -1691,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
         <v>8</v>
@@ -1699,7 +1693,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>21526</v>
+        <v>21792</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -1708,15 +1702,15 @@
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>21625</v>
+        <v>21793</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
@@ -1728,12 +1722,12 @@
         <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>21658</v>
+        <v>21974</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1745,12 +1739,12 @@
         <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>21792</v>
+        <v>22162</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
@@ -1762,12 +1756,12 @@
         <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>21793</v>
+        <v>23987</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
@@ -1784,7 +1778,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>21974</v>
+        <v>25214</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -1796,12 +1790,12 @@
         <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>22162</v>
+        <v>25218</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
@@ -1813,12 +1807,12 @@
         <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>23987</v>
+        <v>26233</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
@@ -1827,15 +1821,15 @@
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>25214</v>
+        <v>26333</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
@@ -1844,15 +1838,15 @@
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>25218</v>
+        <v>26461</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
@@ -1861,15 +1855,15 @@
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E78" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>26233</v>
+        <v>26690</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
@@ -1878,15 +1872,15 @@
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="E79" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>26333</v>
+        <v>28854</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
@@ -1895,15 +1889,15 @@
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E80" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>26461</v>
+        <v>28866</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
@@ -1912,15 +1906,15 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E81" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>26690</v>
+        <v>29836</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
@@ -1929,60 +1923,9 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>28854</v>
-      </c>
-      <c r="B83" t="n">
-        <v>1</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1</v>
-      </c>
-      <c r="D83" t="s">
-        <v>17</v>
-      </c>
-      <c r="E83" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>28866</v>
-      </c>
-      <c r="B84" t="n">
-        <v>1</v>
-      </c>
-      <c r="C84" t="n">
-        <v>1</v>
-      </c>
-      <c r="D84" t="s">
-        <v>17</v>
-      </c>
-      <c r="E84" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>29836</v>
-      </c>
-      <c r="B85" t="n">
-        <v>1</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1</v>
-      </c>
-      <c r="D85" t="s">
-        <v>5</v>
-      </c>
-      <c r="E85" t="s">
         <v>6</v>
       </c>
     </row>

--- a/summaries/variantSummary.xlsx
+++ b/summaries/variantSummary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve">POS</t>
   </si>
@@ -56,154 +56,103 @@
     <t xml:space="preserve">S84L</t>
   </si>
   <si>
+    <t xml:space="preserve">T265I</t>
+  </si>
+  <si>
     <t xml:space="preserve">orf3a</t>
   </si>
   <si>
     <t xml:space="preserve">Q57H</t>
   </si>
   <si>
-    <t xml:space="preserve">T265I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S3884L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1596I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G142S</t>
+    <t xml:space="preserve">G172V</t>
   </si>
   <si>
     <t xml:space="preserve">N</t>
   </si>
   <si>
-    <t xml:space="preserve">S183Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1844V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1283V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2374T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K811T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A879S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q72H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L3606F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T325I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S412Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I652V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E942G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1246I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4083M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P12S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G170C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T797I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E1728V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G252D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E59*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orf10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K120N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P380S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T666I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1016P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1769V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2007I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3117I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M620T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1326T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1682L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1831S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2687V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K77I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D138H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P809S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G1219V</t>
+    <t xml:space="preserve">I15V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T945I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L3352F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N1653D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S24L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P67S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P199L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2613C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L18F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F32L</t>
   </si>
   <si>
     <t xml:space="preserve">E</t>
   </si>
   <si>
-    <t xml:space="preserve">T30I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L73F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
+    <t xml:space="preserve">F143L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V438A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1582H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G2118D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2523T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4087I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1290I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1521S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1905L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P681H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A845S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D72G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q83K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T135I</t>
   </si>
   <si>
     <t xml:space="preserve">S194L</t>
   </si>
   <si>
-    <t xml:space="preserve">T198I</t>
+    <t xml:space="preserve">P207L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T391I</t>
   </si>
 </sst>
 </file>
@@ -557,10 +506,10 @@
         <v>241</v>
       </c>
       <c r="B2" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -574,10 +523,10 @@
         <v>3037</v>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -591,10 +540,10 @@
         <v>8782</v>
       </c>
       <c r="B4" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -608,10 +557,10 @@
         <v>14408</v>
       </c>
       <c r="B5" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -625,10 +574,10 @@
         <v>18060</v>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -642,10 +591,10 @@
         <v>23403</v>
       </c>
       <c r="B7" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -659,10 +608,10 @@
         <v>28144</v>
       </c>
       <c r="B8" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -673,118 +622,118 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>25563</v>
+        <v>1059</v>
       </c>
       <c r="B9" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
         <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1059</v>
+        <v>2698</v>
       </c>
       <c r="B10" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11916</v>
+        <v>25563</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>16260</v>
+        <v>25907</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>18255</v>
+        <v>28316</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>21986</v>
+        <v>3099</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>28821</v>
+        <v>10319</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
         <v>21</v>
@@ -792,13 +741,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>18877</v>
+        <v>11572</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -809,10 +758,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>18998</v>
+        <v>17802</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
         <v>7</v>
@@ -821,38 +770,38 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>29540</v>
+        <v>18424</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1918</v>
+        <v>23266</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -860,13 +809,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>23230</v>
+        <v>25369</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -877,16 +826,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4113</v>
+        <v>27964</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
         <v>23</v>
@@ -894,16 +843,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>7386</v>
+        <v>28472</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
@@ -911,84 +860,84 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>20371</v>
+        <v>28869</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23994</v>
+        <v>21304</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24197</v>
+        <v>21614</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>28109</v>
+        <v>21656</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>29344</v>
+        <v>26472</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
@@ -996,251 +945,251 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6388</v>
+        <v>692</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>11083</v>
+        <v>832</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>28609</v>
+        <v>1578</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>29247</v>
+        <v>5011</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>157</v>
+        <v>5497</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1500</v>
+        <v>6618</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2219</v>
+        <v>7168</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2485</v>
+        <v>7833</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3090</v>
+        <v>10741</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4002</v>
+        <v>12525</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>12513</v>
+        <v>17336</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>13501</v>
+        <v>18028</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>13975</v>
+        <v>19180</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>15857</v>
+        <v>20178</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>17010</v>
+        <v>20268</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -1251,67 +1200,67 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>18650</v>
+        <v>22591</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>22317</v>
+        <v>22969</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
         <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>28068</v>
+        <v>23604</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>29614</v>
+        <v>24076</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
@@ -1319,7 +1268,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>625</v>
+        <v>24095</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -1328,15 +1277,15 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1403</v>
+        <v>26459</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -1345,15 +1294,15 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2262</v>
+        <v>27390</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
@@ -1362,15 +1311,15 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2416</v>
+        <v>27920</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -1379,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
@@ -1387,7 +1336,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2788</v>
+        <v>27923</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -1396,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E51" t="s">
         <v>8</v>
@@ -1404,7 +1353,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3312</v>
+        <v>28520</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -1413,15 +1362,15 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5570</v>
+        <v>28677</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -1430,15 +1379,15 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6285</v>
+        <v>28854</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -1447,15 +1396,15 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>7975</v>
+        <v>28893</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -1464,15 +1413,15 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9615</v>
+        <v>29266</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -1481,15 +1430,15 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E56" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>12112</v>
+        <v>29445</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -1498,15 +1447,15 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>13459</v>
+        <v>29710</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -1515,417 +1464,9 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>15326</v>
-      </c>
-      <c r="B59" t="n">
-        <v>1</v>
-      </c>
-      <c r="C59" t="n">
-        <v>1</v>
-      </c>
-      <c r="D59" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>17443</v>
-      </c>
-      <c r="B60" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" t="n">
-        <v>1</v>
-      </c>
-      <c r="D60" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>18486</v>
-      </c>
-      <c r="B61" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>18512</v>
-      </c>
-      <c r="B62" t="n">
-        <v>1</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1</v>
-      </c>
-      <c r="D62" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>18958</v>
-      </c>
-      <c r="B63" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>19524</v>
-      </c>
-      <c r="B64" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1</v>
-      </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>20268</v>
-      </c>
-      <c r="B65" t="n">
-        <v>1</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1</v>
-      </c>
-      <c r="D65" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>20580</v>
-      </c>
-      <c r="B66" t="n">
-        <v>1</v>
-      </c>
-      <c r="C66" t="n">
-        <v>1</v>
-      </c>
-      <c r="D66" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>21526</v>
-      </c>
-      <c r="B67" t="n">
-        <v>1</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1</v>
-      </c>
-      <c r="D67" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>21625</v>
-      </c>
-      <c r="B68" t="n">
-        <v>1</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1</v>
-      </c>
-      <c r="D68" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>21792</v>
-      </c>
-      <c r="B69" t="n">
-        <v>1</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1</v>
-      </c>
-      <c r="D69" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>21793</v>
-      </c>
-      <c r="B70" t="n">
-        <v>1</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1</v>
-      </c>
-      <c r="D70" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>21974</v>
-      </c>
-      <c r="B71" t="n">
-        <v>1</v>
-      </c>
-      <c r="C71" t="n">
-        <v>1</v>
-      </c>
-      <c r="D71" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>22162</v>
-      </c>
-      <c r="B72" t="n">
-        <v>1</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1</v>
-      </c>
-      <c r="D72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>23987</v>
-      </c>
-      <c r="B73" t="n">
-        <v>1</v>
-      </c>
-      <c r="C73" t="n">
-        <v>1</v>
-      </c>
-      <c r="D73" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>25214</v>
-      </c>
-      <c r="B74" t="n">
-        <v>1</v>
-      </c>
-      <c r="C74" t="n">
-        <v>1</v>
-      </c>
-      <c r="D74" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>25218</v>
-      </c>
-      <c r="B75" t="n">
-        <v>1</v>
-      </c>
-      <c r="C75" t="n">
-        <v>1</v>
-      </c>
-      <c r="D75" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>26233</v>
-      </c>
-      <c r="B76" t="n">
-        <v>1</v>
-      </c>
-      <c r="C76" t="n">
-        <v>1</v>
-      </c>
-      <c r="D76" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>26333</v>
-      </c>
-      <c r="B77" t="n">
-        <v>1</v>
-      </c>
-      <c r="C77" t="n">
-        <v>1</v>
-      </c>
-      <c r="D77" t="s">
-        <v>58</v>
-      </c>
-      <c r="E77" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>26461</v>
-      </c>
-      <c r="B78" t="n">
-        <v>1</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1</v>
-      </c>
-      <c r="D78" t="s">
-        <v>58</v>
-      </c>
-      <c r="E78" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>26690</v>
-      </c>
-      <c r="B79" t="n">
-        <v>1</v>
-      </c>
-      <c r="C79" t="n">
-        <v>1</v>
-      </c>
-      <c r="D79" t="s">
-        <v>61</v>
-      </c>
-      <c r="E79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>28854</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1</v>
-      </c>
-      <c r="C80" t="n">
-        <v>1</v>
-      </c>
-      <c r="D80" t="s">
-        <v>20</v>
-      </c>
-      <c r="E80" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>28866</v>
-      </c>
-      <c r="B81" t="n">
-        <v>1</v>
-      </c>
-      <c r="C81" t="n">
-        <v>1</v>
-      </c>
-      <c r="D81" t="s">
-        <v>20</v>
-      </c>
-      <c r="E81" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>29836</v>
-      </c>
-      <c r="B82" t="n">
-        <v>1</v>
-      </c>
-      <c r="C82" t="n">
-        <v>1</v>
-      </c>
-      <c r="D82" t="s">
-        <v>5</v>
-      </c>
-      <c r="E82" t="s">
         <v>6</v>
       </c>
     </row>
